--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnk</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifnk</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H2">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I2">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J2">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N2">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q2">
-        <v>4.190612810322222</v>
+        <v>2.285796837293556</v>
       </c>
       <c r="R2">
-        <v>37.71551529289999</v>
+        <v>20.572171535642</v>
       </c>
       <c r="S2">
-        <v>0.0198543520788317</v>
+        <v>0.009347157225067291</v>
       </c>
       <c r="T2">
-        <v>0.0198543520788317</v>
+        <v>0.009347157225067289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H3">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I3">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J3">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.795224</v>
       </c>
       <c r="O3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q3">
-        <v>5.115712143902222</v>
+        <v>1.955880283841778</v>
       </c>
       <c r="R3">
-        <v>46.04140929512</v>
+        <v>17.602922554576</v>
       </c>
       <c r="S3">
-        <v>0.02423730242717888</v>
+        <v>0.007998051370184158</v>
       </c>
       <c r="T3">
-        <v>0.02423730242717888</v>
+        <v>0.007998051370184157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H4">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I4">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J4">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N4">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q4">
-        <v>9.243446240208888</v>
+        <v>4.751130978050222</v>
       </c>
       <c r="R4">
-        <v>83.19101616187999</v>
+        <v>42.760178802452</v>
       </c>
       <c r="S4">
-        <v>0.04379374673384563</v>
+        <v>0.01942848442353489</v>
       </c>
       <c r="T4">
-        <v>0.04379374673384563</v>
+        <v>0.01942848442353489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H5">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I5">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J5">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N5">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q5">
-        <v>2.543719961115555</v>
+        <v>0.6332844065702221</v>
       </c>
       <c r="R5">
-        <v>22.89347965004</v>
+        <v>5.699559659131999</v>
       </c>
       <c r="S5">
-        <v>0.01205167692265442</v>
+        <v>0.002589647872382238</v>
       </c>
       <c r="T5">
-        <v>0.01205167692265442</v>
+        <v>0.002589647872382238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H6">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I6">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J6">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N6">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q6">
-        <v>9.619746458673333</v>
+        <v>3.602242282575333</v>
       </c>
       <c r="R6">
-        <v>86.57771812806</v>
+        <v>32.420180543178</v>
       </c>
       <c r="S6">
-        <v>0.04557658789882548</v>
+        <v>0.01473041016973492</v>
       </c>
       <c r="T6">
-        <v>0.04557658789882548</v>
+        <v>0.01473041016973492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2655433333333333</v>
+        <v>0.1015246666666667</v>
       </c>
       <c r="H7">
-        <v>0.7966299999999999</v>
+        <v>0.304574</v>
       </c>
       <c r="I7">
-        <v>0.2002402994191088</v>
+        <v>0.07136555804734102</v>
       </c>
       <c r="J7">
-        <v>0.2002402994191088</v>
+        <v>0.071365558047341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N7">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q7">
-        <v>11.55102568466111</v>
+        <v>4.223727153970001</v>
       </c>
       <c r="R7">
-        <v>103.95923116195</v>
+        <v>38.01354438573</v>
       </c>
       <c r="S7">
-        <v>0.0547266333577727</v>
+        <v>0.01727180698643751</v>
       </c>
       <c r="T7">
-        <v>0.0547266333577727</v>
+        <v>0.01727180698643751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H8">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I8">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J8">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N8">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O8">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P8">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q8">
-        <v>1.602188853157777</v>
+        <v>7.901892211392666</v>
       </c>
       <c r="R8">
-        <v>14.41969967842</v>
+        <v>71.117029902534</v>
       </c>
       <c r="S8">
-        <v>0.007590875852099579</v>
+        <v>0.03231268311792503</v>
       </c>
       <c r="T8">
-        <v>0.007590875852099579</v>
+        <v>0.03231268311792503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H9">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I9">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J9">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>57.795224</v>
       </c>
       <c r="O9">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P9">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q9">
-        <v>1.955880283841777</v>
+        <v>6.761386195461332</v>
       </c>
       <c r="R9">
-        <v>17.602922554576</v>
+        <v>60.85247575915199</v>
       </c>
       <c r="S9">
-        <v>0.009266600742447033</v>
+        <v>0.02764888759895512</v>
       </c>
       <c r="T9">
-        <v>0.009266600742447033</v>
+        <v>0.02764888759895512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H10">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I10">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J10">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N10">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O10">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P10">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q10">
-        <v>3.534028840447111</v>
+        <v>16.42443644082266</v>
       </c>
       <c r="R10">
-        <v>31.80625956402399</v>
+        <v>147.819927967404</v>
       </c>
       <c r="S10">
-        <v>0.0167435780948675</v>
+        <v>0.06716335732062169</v>
       </c>
       <c r="T10">
-        <v>0.0167435780948675</v>
+        <v>0.06716335732062169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H11">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I11">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J11">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N11">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O11">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P11">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q11">
-        <v>0.9725355101324441</v>
+        <v>2.189234422862666</v>
       </c>
       <c r="R11">
-        <v>8.752819591191997</v>
+        <v>19.70310980576399</v>
       </c>
       <c r="S11">
-        <v>0.004607694220705408</v>
+        <v>0.008952290955680762</v>
       </c>
       <c r="T11">
-        <v>0.004607694220705408</v>
+        <v>0.008952290955680764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H12">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I12">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J12">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N12">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O12">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P12">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q12">
-        <v>3.677898971798666</v>
+        <v>12.452782229734</v>
       </c>
       <c r="R12">
-        <v>33.101090746188</v>
+        <v>112.075040067606</v>
       </c>
       <c r="S12">
-        <v>0.01742520829330664</v>
+        <v>0.0509223354813397</v>
       </c>
       <c r="T12">
-        <v>0.01742520829330664</v>
+        <v>0.0509223354813397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1015246666666667</v>
+        <v>0.3509659999999999</v>
       </c>
       <c r="H13">
-        <v>0.304574</v>
+        <v>1.052898</v>
       </c>
       <c r="I13">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="J13">
-        <v>0.07655748459796348</v>
+        <v>0.2467073792803366</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N13">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O13">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P13">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q13">
-        <v>4.416281205678888</v>
+        <v>14.60122621419</v>
       </c>
       <c r="R13">
-        <v>39.74653085110999</v>
+        <v>131.41103592771</v>
       </c>
       <c r="S13">
-        <v>0.02092352739453732</v>
+        <v>0.05970782480581427</v>
       </c>
       <c r="T13">
-        <v>0.02092352739453732</v>
+        <v>0.05970782480581427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H14">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I14">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J14">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N14">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O14">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P14">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q14">
-        <v>2.413620015953333</v>
+        <v>5.038893660373556</v>
       </c>
       <c r="R14">
-        <v>21.72258014358</v>
+        <v>45.350042943362</v>
       </c>
       <c r="S14">
-        <v>0.01143528733153664</v>
+        <v>0.02060521325231743</v>
       </c>
       <c r="T14">
-        <v>0.01143528733153664</v>
+        <v>0.02060521325231743</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H15">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I15">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J15">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>57.795224</v>
       </c>
       <c r="O15">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P15">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q15">
-        <v>2.946439049669333</v>
+        <v>4.311613614081778</v>
       </c>
       <c r="R15">
-        <v>26.517951447024</v>
+        <v>38.80452252673599</v>
       </c>
       <c r="S15">
-        <v>0.01395968583087855</v>
+        <v>0.01763119525192835</v>
       </c>
       <c r="T15">
-        <v>0.01395968583087855</v>
+        <v>0.01763119525192835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H16">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I16">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J16">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N16">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O16">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P16">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q16">
-        <v>5.323843521597333</v>
+        <v>10.47356588053022</v>
       </c>
       <c r="R16">
-        <v>47.914591694376</v>
+        <v>94.26209292477199</v>
       </c>
       <c r="S16">
-        <v>0.0252233905814537</v>
+        <v>0.04282885748863412</v>
       </c>
       <c r="T16">
-        <v>0.0252233905814537</v>
+        <v>0.04282885748863413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H17">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I17">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J17">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N17">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O17">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P17">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q17">
-        <v>1.465077708445333</v>
+        <v>1.396035172250222</v>
       </c>
       <c r="R17">
-        <v>13.185699376008</v>
+        <v>12.564316550252</v>
       </c>
       <c r="S17">
-        <v>0.006941268488148626</v>
+        <v>0.005708713930235829</v>
       </c>
       <c r="T17">
-        <v>0.006941268488148626</v>
+        <v>0.005708713930235829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H18">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I18">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J18">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N18">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O18">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P18">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q18">
-        <v>5.540576916068001</v>
+        <v>7.940913866295332</v>
       </c>
       <c r="R18">
-        <v>49.865192244612</v>
+        <v>71.46822479665799</v>
       </c>
       <c r="S18">
-        <v>0.02625023350773446</v>
+        <v>0.03247225178019923</v>
       </c>
       <c r="T18">
-        <v>0.02625023350773446</v>
+        <v>0.03247225178019923</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.152942</v>
+        <v>0.2238046666666667</v>
       </c>
       <c r="H19">
-        <v>0.458826</v>
+        <v>0.671414</v>
       </c>
       <c r="I19">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="J19">
-        <v>0.1153301477740884</v>
+        <v>0.1573208310321873</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N19">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O19">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P19">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q19">
-        <v>6.652914038876665</v>
+        <v>9.31093771417</v>
       </c>
       <c r="R19">
-        <v>59.87622634989</v>
+        <v>83.79843942753</v>
       </c>
       <c r="S19">
-        <v>0.03152028203433642</v>
+        <v>0.0380745993288723</v>
       </c>
       <c r="T19">
-        <v>0.03152028203433642</v>
+        <v>0.0380745993288723</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H20">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I20">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J20">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N20">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O20">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P20">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q20">
-        <v>7.400829589004443</v>
+        <v>16.80282895443833</v>
       </c>
       <c r="R20">
-        <v>66.60746630103999</v>
+        <v>151.225460589945</v>
       </c>
       <c r="S20">
-        <v>0.03506376823303588</v>
+        <v>0.06871069270049819</v>
       </c>
       <c r="T20">
-        <v>0.03506376823303588</v>
+        <v>0.06871069270049816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H21">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I21">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J21">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>57.795224</v>
       </c>
       <c r="O21">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P21">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q21">
-        <v>9.034600789212444</v>
+        <v>14.37762154910667</v>
       </c>
       <c r="R21">
-        <v>81.311407102912</v>
+        <v>129.39859394196</v>
       </c>
       <c r="S21">
-        <v>0.04280427543171715</v>
+        <v>0.05879345309670511</v>
       </c>
       <c r="T21">
-        <v>0.04280427543171715</v>
+        <v>0.0587934530967051</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H22">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I22">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J22">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N22">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O22">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P22">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q22">
-        <v>16.32438345780978</v>
+        <v>34.92543163146333</v>
       </c>
       <c r="R22">
-        <v>146.919451120288</v>
+        <v>314.32888468317</v>
       </c>
       <c r="S22">
-        <v>0.07734192379760567</v>
+        <v>0.1428182484490423</v>
       </c>
       <c r="T22">
-        <v>0.07734192379760567</v>
+        <v>0.1428182484490423</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H23">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I23">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J23">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N23">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O23">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P23">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q23">
-        <v>4.49233532336711</v>
+        <v>4.655256053163333</v>
       </c>
       <c r="R23">
-        <v>40.43101791030399</v>
+        <v>41.89730447847</v>
       </c>
       <c r="S23">
-        <v>0.02128385780394843</v>
+        <v>0.0190364294594899</v>
       </c>
       <c r="T23">
-        <v>0.02128385780394843</v>
+        <v>0.0190364294594899</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H24">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I24">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J24">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N24">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O24">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P24">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q24">
-        <v>16.98894826425067</v>
+        <v>26.479982795945</v>
       </c>
       <c r="R24">
-        <v>152.900534378256</v>
+        <v>238.319845163505</v>
       </c>
       <c r="S24">
-        <v>0.08049050951609001</v>
+        <v>0.1082828353213737</v>
       </c>
       <c r="T24">
-        <v>0.08049050951609001</v>
+        <v>0.1082828353213737</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4689626666666666</v>
+        <v>0.746305</v>
       </c>
       <c r="H25">
-        <v>1.406888</v>
+        <v>2.238915</v>
       </c>
       <c r="I25">
-        <v>0.353634277354796</v>
+        <v>0.5246062316401351</v>
       </c>
       <c r="J25">
-        <v>0.353634277354796</v>
+        <v>0.524606231640135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N25">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O25">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P25">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q25">
-        <v>20.39968294370222</v>
+        <v>31.048500794325</v>
       </c>
       <c r="R25">
-        <v>183.59714649332</v>
+        <v>279.436507148925</v>
       </c>
       <c r="S25">
-        <v>0.09664994257239888</v>
+        <v>0.1269645726130259</v>
       </c>
       <c r="T25">
-        <v>0.09664994257239888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.011452</v>
-      </c>
-      <c r="I26">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J26">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>15.78127666666667</v>
-      </c>
-      <c r="N26">
-        <v>47.34383</v>
-      </c>
-      <c r="O26">
-        <v>0.0991526287986414</v>
-      </c>
-      <c r="P26">
-        <v>0.0991526287986414</v>
-      </c>
-      <c r="Q26">
-        <v>5.320667949017777</v>
-      </c>
-      <c r="R26">
-        <v>47.88601154115999</v>
-      </c>
-      <c r="S26">
-        <v>0.02520834530313758</v>
-      </c>
-      <c r="T26">
-        <v>0.02520834530313758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H27">
-        <v>1.011452</v>
-      </c>
-      <c r="I27">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J27">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>19.26507466666667</v>
-      </c>
-      <c r="N27">
-        <v>57.795224</v>
-      </c>
-      <c r="O27">
-        <v>0.121041081627877</v>
-      </c>
-      <c r="P27">
-        <v>0.121041081627877</v>
-      </c>
-      <c r="Q27">
-        <v>6.495232767249778</v>
-      </c>
-      <c r="R27">
-        <v>58.45709490524801</v>
-      </c>
-      <c r="S27">
-        <v>0.03077321719565537</v>
-      </c>
-      <c r="T27">
-        <v>0.03077321719565537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H28">
-        <v>1.011452</v>
-      </c>
-      <c r="I28">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J28">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>34.80955866666667</v>
-      </c>
-      <c r="N28">
-        <v>104.428676</v>
-      </c>
-      <c r="O28">
-        <v>0.2187059590945978</v>
-      </c>
-      <c r="P28">
-        <v>0.2187059590945978</v>
-      </c>
-      <c r="Q28">
-        <v>11.73606591083911</v>
-      </c>
-      <c r="R28">
-        <v>105.624593197552</v>
-      </c>
-      <c r="S28">
-        <v>0.05560331988682529</v>
-      </c>
-      <c r="T28">
-        <v>0.05560331988682529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H29">
-        <v>1.011452</v>
-      </c>
-      <c r="I29">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J29">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>9.579302666666665</v>
-      </c>
-      <c r="N29">
-        <v>28.737908</v>
-      </c>
-      <c r="O29">
-        <v>0.06018607122350488</v>
-      </c>
-      <c r="P29">
-        <v>0.06018607122350488</v>
-      </c>
-      <c r="Q29">
-        <v>3.229668280268444</v>
-      </c>
-      <c r="R29">
-        <v>29.067014522416</v>
-      </c>
-      <c r="S29">
-        <v>0.01530157378804798</v>
-      </c>
-      <c r="T29">
-        <v>0.01530157378804798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H30">
-        <v>1.011452</v>
-      </c>
-      <c r="I30">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J30">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>36.226654</v>
-      </c>
-      <c r="N30">
-        <v>108.679962</v>
-      </c>
-      <c r="O30">
-        <v>0.2276094673801518</v>
-      </c>
-      <c r="P30">
-        <v>0.2276094673801518</v>
-      </c>
-      <c r="Q30">
-        <v>12.21384054720267</v>
-      </c>
-      <c r="R30">
-        <v>109.924564924824</v>
-      </c>
-      <c r="S30">
-        <v>0.05786692816419522</v>
-      </c>
-      <c r="T30">
-        <v>0.05786692816419522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.3371506666666667</v>
-      </c>
-      <c r="H31">
-        <v>1.011452</v>
-      </c>
-      <c r="I31">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="J31">
-        <v>0.2542377908540432</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>43.49958833333333</v>
-      </c>
-      <c r="N31">
-        <v>130.498765</v>
-      </c>
-      <c r="O31">
-        <v>0.2733047918752272</v>
-      </c>
-      <c r="P31">
-        <v>0.2733047918752272</v>
-      </c>
-      <c r="Q31">
-        <v>14.66591520630889</v>
-      </c>
-      <c r="R31">
-        <v>131.99323685678</v>
-      </c>
-      <c r="S31">
-        <v>0.06948440651618182</v>
-      </c>
-      <c r="T31">
-        <v>0.06948440651618182</v>
+        <v>0.1269645726130258</v>
       </c>
     </row>
   </sheetData>
